--- a/match_history.xlsx
+++ b/match_history.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirsangameswar/Desktop/ExpoRepos/webScrub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchae\Documents\webScrub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03101C3-C690-4948-B368-F9FEA9968BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65EDD17-190E-4F6C-A389-F174E9D0C9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{9178E15D-B117-49F2-BFE8-F265852AE0B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="February" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="94">
   <si>
     <t>Visitor</t>
   </si>
@@ -29,6 +45,99 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Home 3-Alpha</t>
+  </si>
+  <si>
+    <t>Visitor FG</t>
+  </si>
+  <si>
+    <t>Visitor FGA</t>
+  </si>
+  <si>
+    <t>Visitor 3P</t>
+  </si>
+  <si>
+    <t>Visitor 3PA</t>
+  </si>
+  <si>
+    <t>Visitor FT</t>
+  </si>
+  <si>
+    <t>Visitor FTA</t>
+  </si>
+  <si>
+    <t>Visitor ORB</t>
+  </si>
+  <si>
+    <t>Visitor DRB</t>
+  </si>
+  <si>
+    <t>Visitor TRB</t>
+  </si>
+  <si>
+    <t>Visitor AST</t>
+  </si>
+  <si>
+    <t>Visitor STL</t>
+  </si>
+  <si>
+    <t>Visitor BLK</t>
+  </si>
+  <si>
+    <t>Visitor TOV</t>
+  </si>
+  <si>
+    <t>Visitor PF</t>
+  </si>
+  <si>
+    <t>Visitor PTS</t>
+  </si>
+  <si>
+    <t>Home FG</t>
+  </si>
+  <si>
+    <t>Home FGA</t>
+  </si>
+  <si>
+    <t>Home 3P</t>
+  </si>
+  <si>
+    <t>Home 3PA</t>
+  </si>
+  <si>
+    <t>Home FT</t>
+  </si>
+  <si>
+    <t>Home FTA</t>
+  </si>
+  <si>
+    <t>Home ORB</t>
+  </si>
+  <si>
+    <t>Home DRB</t>
+  </si>
+  <si>
+    <t>Home TRB</t>
+  </si>
+  <si>
+    <t>Home AST</t>
+  </si>
+  <si>
+    <t>Home STL</t>
+  </si>
+  <si>
+    <t>Home BLK</t>
+  </si>
+  <si>
+    <t>Home TOV</t>
+  </si>
+  <si>
+    <t>Home PF</t>
+  </si>
+  <si>
+    <t>Home PTS</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
@@ -210,186 +319,18 @@
   <si>
     <t>CHI</t>
   </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Home_3-Alpha</t>
-  </si>
-  <si>
-    <t>Visitor_FG</t>
-  </si>
-  <si>
-    <t>Visitor_FGA</t>
-  </si>
-  <si>
-    <t>Visitor_3P</t>
-  </si>
-  <si>
-    <t>Visitor_3PA</t>
-  </si>
-  <si>
-    <t>Visitor_FT</t>
-  </si>
-  <si>
-    <t>Visitor_FTA</t>
-  </si>
-  <si>
-    <t>Visitor_ORB</t>
-  </si>
-  <si>
-    <t>Visitor_DRB</t>
-  </si>
-  <si>
-    <t>Visitor_TRB</t>
-  </si>
-  <si>
-    <t>Visitor_AST</t>
-  </si>
-  <si>
-    <t>Visitor_STL</t>
-  </si>
-  <si>
-    <t>Visitor_BLK</t>
-  </si>
-  <si>
-    <t>Visitor_TOV</t>
-  </si>
-  <si>
-    <t>Visitor_PF</t>
-  </si>
-  <si>
-    <t>Visitor_PTS</t>
-  </si>
-  <si>
-    <t>Home_FG</t>
-  </si>
-  <si>
-    <t>Home_FGA</t>
-  </si>
-  <si>
-    <t>Home_3P</t>
-  </si>
-  <si>
-    <t>Home_3PA</t>
-  </si>
-  <si>
-    <t>Home_FT</t>
-  </si>
-  <si>
-    <t>Home_FTA</t>
-  </si>
-  <si>
-    <t>Home_ORB</t>
-  </si>
-  <si>
-    <t>Home_DRB</t>
-  </si>
-  <si>
-    <t>Home_TRB</t>
-  </si>
-  <si>
-    <t>Home_AST</t>
-  </si>
-  <si>
-    <t>Home_STL</t>
-  </si>
-  <si>
-    <t>Home_BLK</t>
-  </si>
-  <si>
-    <t>Home_TOV</t>
-  </si>
-  <si>
-    <t>Home_PF</t>
-  </si>
-  <si>
-    <t>Home_PTS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -408,36 +349,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,44 +383,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -524,14 +447,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -558,6 +499,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,295 +528,269 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374FAD5A-0997-4EA0-A856-702A8A7CF65C}">
   <dimension ref="A1:AH148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>116</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>41</v>
@@ -950,18 +883,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>33</v>
@@ -1054,18 +987,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>38</v>
@@ -1158,18 +1091,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -1262,18 +1195,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>48</v>
@@ -1366,18 +1299,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -1470,18 +1403,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>36</v>
@@ -1574,18 +1507,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>52</v>
@@ -1678,18 +1611,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>42</v>
@@ -1782,18 +1715,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>41</v>
@@ -1886,18 +1819,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>39</v>
@@ -1990,18 +1923,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>42</v>
@@ -2094,18 +2027,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>43</v>
@@ -2198,18 +2131,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>39</v>
@@ -2302,18 +2235,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>40</v>
@@ -2406,18 +2339,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>37</v>
@@ -2510,18 +2443,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>43</v>
@@ -2614,18 +2547,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -2718,18 +2651,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>41</v>
@@ -2822,18 +2755,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>45</v>
@@ -2926,18 +2859,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>46</v>
@@ -3030,18 +2963,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>39</v>
@@ -3134,18 +3067,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E24">
         <v>44</v>
@@ -3238,18 +3171,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
       </c>
       <c r="E25">
         <v>39</v>
@@ -3342,18 +3275,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E26">
         <v>45</v>
@@ -3446,18 +3379,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>42</v>
@@ -3550,18 +3483,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>44</v>
@@ -3654,18 +3587,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E29">
         <v>44</v>
@@ -3758,18 +3691,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E30">
         <v>45</v>
@@ -3862,18 +3795,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>45</v>
@@ -3966,18 +3899,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
         <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
       </c>
       <c r="E32">
         <v>39</v>
@@ -4070,18 +4003,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>42</v>
@@ -4174,18 +4107,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>46</v>
@@ -4278,18 +4211,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>44</v>
@@ -4382,18 +4315,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -4486,18 +4419,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
       </c>
       <c r="E37">
         <v>34</v>
@@ -4590,18 +4523,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -4694,18 +4627,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>44</v>
@@ -4798,18 +4731,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -4902,18 +4835,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>44</v>
@@ -5006,18 +4939,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E42">
         <v>40</v>
@@ -5110,18 +5043,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E43">
         <v>52</v>
@@ -5214,18 +5147,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -5318,18 +5251,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -5422,18 +5355,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>47</v>
@@ -5526,18 +5459,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E47">
         <v>37</v>
@@ -5630,18 +5563,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>43</v>
@@ -5734,18 +5667,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E49">
         <v>38</v>
@@ -5838,18 +5771,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>32</v>
@@ -5942,18 +5875,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E51">
         <v>40</v>
@@ -6046,18 +5979,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -6150,18 +6083,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <v>30</v>
@@ -6254,18 +6187,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E54">
         <v>39</v>
@@ -6358,18 +6291,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E55">
         <v>37</v>
@@ -6462,18 +6395,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E56">
         <v>35</v>
@@ -6566,18 +6499,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>46</v>
@@ -6670,18 +6603,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -6774,18 +6707,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E59">
         <v>41</v>
@@ -6878,18 +6811,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>42</v>
@@ -6982,18 +6915,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E61">
         <v>41</v>
@@ -7086,18 +7019,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>45</v>
@@ -7190,18 +7123,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E63">
         <v>41</v>
@@ -7294,18 +7227,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E64">
         <v>42</v>
@@ -7398,18 +7331,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E65">
         <v>43</v>
@@ -7502,18 +7435,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E66">
         <v>38</v>
@@ -7606,18 +7539,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>46</v>
@@ -7710,18 +7643,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E68">
         <v>45</v>
@@ -7814,18 +7747,18 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E69">
         <v>41</v>
@@ -7918,18 +7851,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>32</v>
@@ -8022,18 +7955,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E71">
         <v>46</v>
@@ -8126,18 +8059,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E72">
         <v>41</v>
@@ -8230,18 +8163,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E73">
         <v>40</v>
@@ -8334,18 +8267,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E74">
         <v>42</v>
@@ -8438,18 +8371,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E75">
         <v>47</v>
@@ -8542,18 +8475,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E76">
         <v>38</v>
@@ -8646,18 +8579,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>31</v>
@@ -8750,18 +8683,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
         <v>46</v>
       </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E78">
         <v>34</v>
@@ -8854,18 +8787,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
         <v>51</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" t="s">
-        <v>20</v>
       </c>
       <c r="E79">
         <v>47</v>
@@ -8958,18 +8891,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E80">
         <v>42</v>
@@ -9062,18 +8995,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E81">
         <v>47</v>
@@ -9166,18 +9099,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E82">
         <v>33</v>
@@ -9270,18 +9203,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E83">
         <v>37</v>
@@ -9374,18 +9307,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E84">
         <v>49</v>
@@ -9478,18 +9411,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E85">
         <v>42</v>
@@ -9582,18 +9515,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E86">
         <v>48</v>
@@ -9686,18 +9619,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E87">
         <v>49</v>
@@ -9790,18 +9723,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E88">
         <v>48</v>
@@ -9894,18 +9827,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E89">
         <v>36</v>
@@ -9998,18 +9931,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E90">
         <v>33</v>
@@ -10102,18 +10035,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E91">
         <v>39</v>
@@ -10206,18 +10139,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E92">
         <v>43</v>
@@ -10310,18 +10243,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E93">
         <v>43</v>
@@ -10414,18 +10347,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E94">
         <v>47</v>
@@ -10518,18 +10451,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E95">
         <v>39</v>
@@ -10622,18 +10555,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -10726,18 +10659,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D97" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E97">
         <v>42</v>
@@ -10830,18 +10763,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E98">
         <v>38</v>
@@ -10934,18 +10867,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E99">
         <v>48</v>
@@ -11038,18 +10971,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E100">
         <v>51</v>
@@ -11142,18 +11075,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E101">
         <v>43</v>
@@ -11246,18 +11179,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E102">
         <v>43</v>
@@ -11350,18 +11283,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E103">
         <v>47</v>
@@ -11454,18 +11387,18 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E104">
         <v>46</v>
@@ -11558,18 +11491,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E105">
         <v>40</v>
@@ -11662,18 +11595,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D106" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E106">
         <v>42</v>
@@ -11766,18 +11699,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E107">
         <v>40</v>
@@ -11870,18 +11803,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -11974,18 +11907,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E109">
         <v>47</v>
@@ -12078,18 +12011,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D110" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E110">
         <v>41</v>
@@ -12182,18 +12115,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -12286,18 +12219,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E112">
         <v>45</v>
@@ -12390,18 +12323,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E113">
         <v>30</v>
@@ -12494,18 +12427,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E114">
         <v>39</v>
@@ -12598,18 +12531,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E115">
         <v>38</v>
@@ -12702,18 +12635,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E116">
         <v>46</v>
@@ -12806,18 +12739,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E117">
         <v>33</v>
@@ -12910,18 +12843,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E118">
         <v>37</v>
@@ -13014,18 +12947,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C119" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E119">
         <v>43</v>
@@ -13118,18 +13051,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E120">
         <v>49</v>
@@ -13222,18 +13155,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>49</v>
@@ -13326,18 +13259,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E122">
         <v>36</v>
@@ -13430,18 +13363,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E123">
         <v>41</v>
@@ -13534,18 +13467,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E124">
         <v>42</v>
@@ -13638,18 +13571,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E125">
         <v>42</v>
@@ -13742,18 +13675,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E126">
         <v>42</v>
@@ -13846,18 +13779,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -13950,18 +13883,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E128">
         <v>42</v>
@@ -14054,18 +13987,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E129">
         <v>44</v>
@@ -14158,18 +14091,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E130">
         <v>46</v>
@@ -14262,18 +14195,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D131" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E131">
         <v>32</v>
@@ -14366,18 +14299,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D132" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E132">
         <v>46</v>
@@ -14470,18 +14403,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E133">
         <v>43</v>
@@ -14574,18 +14507,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E134">
         <v>42</v>
@@ -14678,18 +14611,18 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D135" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E135">
         <v>52</v>
@@ -14782,18 +14715,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E136">
         <v>44</v>
@@ -14886,18 +14819,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E137">
         <v>39</v>
@@ -14990,18 +14923,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E138">
         <v>43</v>
@@ -15094,18 +15027,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D139" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E139">
         <v>37</v>
@@ -15198,18 +15131,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E140">
         <v>41</v>
@@ -15302,18 +15235,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D141" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E141">
         <v>42</v>
@@ -15406,18 +15339,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E142">
         <v>41</v>
@@ -15510,18 +15443,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E143">
         <v>34</v>
@@ -15614,18 +15547,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D144" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E144">
         <v>43</v>
@@ -15718,18 +15651,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E145">
         <v>36</v>
@@ -15822,18 +15755,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E146">
         <v>42</v>
@@ -15926,18 +15859,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E147">
         <v>36</v>
@@ -16030,111 +15963,111 @@
         <v>117</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" t="s">
+        <v>62</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148">
+        <v>54</v>
+      </c>
+      <c r="F148">
+        <v>92</v>
+      </c>
+      <c r="G148">
+        <v>12</v>
+      </c>
+      <c r="H148">
+        <v>28</v>
+      </c>
+      <c r="I148">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>23</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>32</v>
+      </c>
+      <c r="M148">
+        <v>37</v>
+      </c>
+      <c r="N148">
+        <v>39</v>
+      </c>
+      <c r="O148">
+        <v>12</v>
+      </c>
+      <c r="P148">
+        <v>10</v>
+      </c>
+      <c r="Q148">
+        <v>10</v>
+      </c>
+      <c r="R148">
+        <v>22</v>
+      </c>
+      <c r="S148">
+        <v>136</v>
+      </c>
+      <c r="T148">
+        <v>54</v>
+      </c>
+      <c r="U148">
+        <v>97</v>
+      </c>
+      <c r="V148">
+        <v>4</v>
+      </c>
+      <c r="W148">
+        <v>22</v>
+      </c>
+      <c r="X148">
+        <v>23</v>
+      </c>
+      <c r="Y148">
+        <v>28</v>
+      </c>
+      <c r="Z148">
+        <v>18</v>
+      </c>
+      <c r="AA148">
+        <v>33</v>
+      </c>
+      <c r="AB148">
+        <v>51</v>
+      </c>
+      <c r="AC148">
         <v>17</v>
       </c>
-      <c r="B148" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" t="s">
-        <v>63</v>
-      </c>
-      <c r="F148" t="s">
-        <v>64</v>
-      </c>
-      <c r="G148" t="s">
-        <v>65</v>
-      </c>
-      <c r="H148" t="s">
-        <v>66</v>
-      </c>
-      <c r="I148" t="s">
-        <v>67</v>
-      </c>
-      <c r="J148" t="s">
-        <v>68</v>
-      </c>
-      <c r="K148" t="s">
-        <v>69</v>
-      </c>
-      <c r="L148" t="s">
-        <v>70</v>
-      </c>
-      <c r="M148" t="s">
-        <v>71</v>
-      </c>
-      <c r="N148" t="s">
-        <v>72</v>
-      </c>
-      <c r="O148" t="s">
-        <v>65</v>
-      </c>
-      <c r="P148" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>73</v>
-      </c>
-      <c r="R148" t="s">
-        <v>74</v>
-      </c>
-      <c r="S148" t="s">
-        <v>75</v>
-      </c>
-      <c r="T148" t="s">
-        <v>63</v>
-      </c>
-      <c r="U148" t="s">
-        <v>76</v>
-      </c>
-      <c r="V148" t="s">
-        <v>77</v>
-      </c>
-      <c r="W148" t="s">
-        <v>74</v>
-      </c>
-      <c r="X148" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y148" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z148" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA148" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB148" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD148" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF148" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG148" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH148" t="s">
-        <v>85</v>
+      <c r="AD148">
+        <v>6</v>
+      </c>
+      <c r="AE148">
+        <v>4</v>
+      </c>
+      <c r="AF148">
+        <v>15</v>
+      </c>
+      <c r="AG148">
+        <v>19</v>
+      </c>
+      <c r="AH148">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>